--- a/利润表/300921.xlsx
+++ b/利润表/300921.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>41062523.45</v>
+        <v>32260076.08</v>
       </c>
       <c r="P2" t="n">
-        <v>241960646.79</v>
+        <v>381909527.23</v>
       </c>
       <c r="Q2" t="n">
-        <v>196866830.8</v>
+        <v>347682544.98</v>
       </c>
       <c r="R2" t="n">
-        <v>-3.0330696963</v>
+        <v>5.3248569944</v>
       </c>
       <c r="S2" t="n">
-        <v>147473644.12</v>
+        <v>254156707.02</v>
       </c>
       <c r="T2" t="n">
-        <v>147473644.12</v>
+        <v>254156707.02</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.718593084</v>
+        <v>2.5852564758</v>
       </c>
       <c r="V2" t="n">
-        <v>21056858.68</v>
+        <v>41230517.34</v>
       </c>
       <c r="W2" t="n">
-        <v>13125558.75</v>
+        <v>26339237.82</v>
       </c>
       <c r="X2" t="n">
-        <v>-839978.78</v>
+        <v>1732933.18</v>
       </c>
       <c r="Y2" t="n">
-        <v>48018707.27</v>
+        <v>36803822.04</v>
       </c>
       <c r="Z2" t="n">
-        <v>48360531.11</v>
+        <v>36623900.99</v>
       </c>
       <c r="AA2" t="n">
-        <v>7313363.37</v>
+        <v>4401688.82</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>148759.97</v>
+        <v>452609.16</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>0.6069782983000001</v>
+        <v>7.0611582777</v>
       </c>
       <c r="AQ2" t="n">
-        <v>24.115497497786</v>
+        <v>45.450067394206</v>
       </c>
       <c r="AR2" t="n">
-        <v>24.539534951721</v>
+        <v>45.427427249849</v>
       </c>
       <c r="AS2" t="n">
-        <v>39515859.46</v>
+        <v>31064058.97</v>
       </c>
       <c r="AT2" t="n">
-        <v>24.785511727539</v>
+        <v>41.818582310869</v>
       </c>
     </row>
   </sheetData>
